--- a/data/trans_dic/P16A09-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A09-Habitat-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.03969689212369457</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.06457720619309971</v>
+        <v>0.06457720619309973</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.03344389600043832</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01934249542846896</v>
+        <v>0.01849028106028089</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.009388308698104138</v>
+        <v>0.009501270937123024</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.006248120278388811</v>
+        <v>0.006117470748986932</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01526312440150234</v>
+        <v>0.01557226437998251</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02653155748836299</v>
+        <v>0.02556965349262695</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03704154761159784</v>
+        <v>0.0387968582635374</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02602323766145007</v>
+        <v>0.02586037081549166</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.05238704512582077</v>
+        <v>0.05069137884157941</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02440499454840511</v>
+        <v>0.02495595298862352</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02632127184776388</v>
+        <v>0.02680227188223318</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01901479415020137</v>
+        <v>0.01871605999194926</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.0365318304018236</v>
+        <v>0.03660357729437737</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04491339098457967</v>
+        <v>0.04422881742563659</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03004624669932257</v>
+        <v>0.02986830031678791</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02386909756474695</v>
+        <v>0.02286421273386887</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03859009917156807</v>
+        <v>0.03894622589932271</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.05335758090499162</v>
+        <v>0.05467084679519339</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.07126132107151993</v>
+        <v>0.0746304830671695</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.05832391523109301</v>
+        <v>0.058030745228085</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.08430894878399352</v>
+        <v>0.08123134560466003</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.04233211857160496</v>
+        <v>0.04429419125476285</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.0467007257754564</v>
+        <v>0.04765969321570437</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.03726853805553593</v>
+        <v>0.03635927498869862</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.05656865703214492</v>
+        <v>0.05521264499269043</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.03894603902649785</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.04800157612632886</v>
+        <v>0.04800157612632887</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.03688626569322006</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01763056588172256</v>
+        <v>0.01794225764486053</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01531600090076968</v>
+        <v>0.01529666651738915</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.008323399837997179</v>
+        <v>0.009207282783032754</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01066389413090335</v>
+        <v>0.01102353175338012</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03440080628263781</v>
+        <v>0.03425472400099902</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04932948578271828</v>
+        <v>0.04917887846320579</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02894242916256646</v>
+        <v>0.02779168282771069</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03835691706493689</v>
+        <v>0.03851297429635933</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02910051704008273</v>
+        <v>0.02929177435768538</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.03577640148633044</v>
+        <v>0.03535136764120615</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02072398615216433</v>
+        <v>0.02041126587859189</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02668010135310607</v>
+        <v>0.02717516180860391</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03968404923588806</v>
+        <v>0.03825146645158877</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03553029431640372</v>
+        <v>0.03542986052995265</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02400491214220692</v>
+        <v>0.02398795536074566</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02592026973602518</v>
+        <v>0.02728319540762896</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.06416435005361552</v>
+        <v>0.06291213191944024</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.08077272298212008</v>
+        <v>0.0796827968479506</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05300852031636814</v>
+        <v>0.05326683951667357</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05910069417820611</v>
+        <v>0.05856805280575023</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04548246033739468</v>
+        <v>0.04746869228170525</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.05391337951588465</v>
+        <v>0.05323454451048978</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03512654877807157</v>
+        <v>0.03597160216525614</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03972700403038439</v>
+        <v>0.03981931145433444</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0148964516988015</v>
+        <v>0.01472952931434367</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.009434763634269878</v>
+        <v>0.009509891547038466</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.009353932389995875</v>
+        <v>0.009997632747890488</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.008727152031040731</v>
+        <v>0.008878144956108919</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04577840664924031</v>
+        <v>0.04392835361698346</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03424672022057708</v>
+        <v>0.03459636394100633</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02506849500694627</v>
+        <v>0.02489723078128235</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03086071072395589</v>
+        <v>0.03013571766872411</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03438583410424576</v>
+        <v>0.0328438556609572</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02367909584471541</v>
+        <v>0.02453368377343836</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02035549035782223</v>
+        <v>0.02030946739752362</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02152616135899059</v>
+        <v>0.02110080821443763</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03978968614777052</v>
+        <v>0.03929364224392445</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03330990931654722</v>
+        <v>0.03360261651989196</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02847972828689736</v>
+        <v>0.02956689397159131</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.02662227667992285</v>
+        <v>0.02588049016344394</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.08168330268793203</v>
+        <v>0.08003168825456784</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.06434255694627576</v>
+        <v>0.06652504262613874</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05441491232742271</v>
+        <v>0.05239437767580418</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.05360712054637085</v>
+        <v>0.0530205213073105</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05634837938559233</v>
+        <v>0.05545913718341781</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.04468136450080154</v>
+        <v>0.04345830388654694</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03805703443183948</v>
+        <v>0.03689731577022502</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.0360216704332512</v>
+        <v>0.03579379327145307</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.008590116127634859</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.01879893777164424</v>
+        <v>0.01879893777164425</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.05666680783620241</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02414626754110331</v>
+        <v>0.02437914259426284</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01322189823380517</v>
+        <v>0.01287787807146571</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.003996771450791161</v>
+        <v>0.00373010295818048</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01230483700589294</v>
+        <v>0.01269535231461281</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04321964432440252</v>
+        <v>0.04278691657758821</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04925241650188908</v>
+        <v>0.04975849446544198</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0254013222298335</v>
+        <v>0.0243162672521345</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05331266106758888</v>
+        <v>0.05374780371542348</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03685352962662569</v>
+        <v>0.03708085733679736</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03535031706215525</v>
+        <v>0.03517828092427542</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01662396435994814</v>
+        <v>0.01691844503217064</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.03626898653587188</v>
+        <v>0.03613554873525986</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04738936945937623</v>
+        <v>0.04751397076880857</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03352909855601842</v>
+        <v>0.03515682020391112</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01774770854159288</v>
+        <v>0.01701345043221304</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02862825016735028</v>
+        <v>0.02707935646621869</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07469472898573214</v>
+        <v>0.07341969258747927</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.08101291624297115</v>
+        <v>0.08146156015002261</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.04934291146789976</v>
+        <v>0.05049347696104905</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.07735301016643611</v>
+        <v>0.0769917187683581</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05649114708145225</v>
+        <v>0.0560612742820621</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.0551556941340666</v>
+        <v>0.05519142945713344</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03074688918215308</v>
+        <v>0.03071797961891258</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.05119915208305202</v>
+        <v>0.05158911022751184</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.0259051542617142</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.037116320479046</v>
+        <v>0.03711632047904599</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02378032746097833</v>
+        <v>0.02380779310962127</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01608019389557383</v>
+        <v>0.01638187923073816</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.009734319762949622</v>
+        <v>0.00961564697355672</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01486334504150083</v>
+        <v>0.01467415717595197</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.0435888668247593</v>
+        <v>0.04386643182925015</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04977522935418879</v>
+        <v>0.05081849636731924</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.03139640932622004</v>
+        <v>0.03168091753870269</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.04832328794271163</v>
+        <v>0.04851603351319984</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03571860583408898</v>
+        <v>0.03532084317272669</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.0347314749895235</v>
+        <v>0.03515344848248157</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.02216109431042434</v>
+        <v>0.02195138616145598</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.03359035837087793</v>
+        <v>0.03355042487460858</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03540438034759337</v>
+        <v>0.0353963372602435</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02613706549615682</v>
+        <v>0.02659922339948654</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01792295999814707</v>
+        <v>0.01758910417881673</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.022909498985676</v>
+        <v>0.02297407558477227</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.05941075619114513</v>
+        <v>0.059006248536433</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.06629202079529145</v>
+        <v>0.06752331356736531</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.04490138375912393</v>
+        <v>0.04585237790008892</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.06037150712013913</v>
+        <v>0.061040983089649</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04523692295307235</v>
+        <v>0.04522529726698722</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.04517671547547077</v>
+        <v>0.04542755290609819</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.02998434932203515</v>
+        <v>0.02995431307291747</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.04093673179298146</v>
+        <v>0.04089374532262288</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>13404</v>
+        <v>12814</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>6579</v>
+        <v>6658</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>4216</v>
+        <v>4128</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>10535</v>
+        <v>10748</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>18263</v>
+        <v>17601</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>25644</v>
+        <v>26860</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>17509</v>
+        <v>17400</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>38388</v>
+        <v>37146</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>33712</v>
+        <v>34473</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>36668</v>
+        <v>37338</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>25625</v>
+        <v>25222</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>51985</v>
+        <v>52087</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>31125</v>
+        <v>30650</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>21055</v>
+        <v>20931</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>16107</v>
+        <v>15429</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>26635</v>
+        <v>26881</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>36729</v>
+        <v>37633</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>49335</v>
+        <v>51668</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>39243</v>
+        <v>39045</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>61780</v>
+        <v>59525</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>58475</v>
+        <v>61186</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>65058</v>
+        <v>66394</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>50225</v>
+        <v>48999</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>80497</v>
+        <v>78567</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>16957</v>
+        <v>17257</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>15591</v>
+        <v>15571</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>8510</v>
+        <v>9414</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>11186</v>
+        <v>11563</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>33313</v>
+        <v>33172</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>50700</v>
+        <v>50545</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>30184</v>
+        <v>28984</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>41074</v>
+        <v>41241</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>56170</v>
+        <v>56539</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>73189</v>
+        <v>72319</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>42802</v>
+        <v>42156</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>56555</v>
+        <v>57605</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>38168</v>
+        <v>36790</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>36168</v>
+        <v>36066</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>24543</v>
+        <v>24526</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>27188</v>
+        <v>28618</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>62136</v>
+        <v>60924</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>83016</v>
+        <v>81896</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>55283</v>
+        <v>55553</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>63287</v>
+        <v>62717</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>87790</v>
+        <v>91624</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>110292</v>
+        <v>108903</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>72548</v>
+        <v>74294</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>84212</v>
+        <v>84407</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>10107</v>
+        <v>9994</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>7138</v>
+        <v>7195</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>7105</v>
+        <v>7594</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>7000</v>
+        <v>7121</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>31305</v>
+        <v>30040</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>26585</v>
+        <v>26857</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>19679</v>
+        <v>19545</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>25022</v>
+        <v>24434</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>46846</v>
+        <v>44745</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>36296</v>
+        <v>37606</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>31440</v>
+        <v>31369</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>34719</v>
+        <v>34033</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>26998</v>
+        <v>26661</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>25200</v>
+        <v>25422</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>21632</v>
+        <v>22458</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>21353</v>
+        <v>20758</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>55858</v>
+        <v>54729</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>49948</v>
+        <v>51642</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>42716</v>
+        <v>41130</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>43464</v>
+        <v>42989</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>76766</v>
+        <v>75555</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>68489</v>
+        <v>66614</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>58781</v>
+        <v>56990</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>58098</v>
+        <v>57731</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>22751</v>
+        <v>22971</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>12481</v>
+        <v>12156</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3747</v>
+        <v>3497</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>12173</v>
+        <v>12559</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>44888</v>
+        <v>44439</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>51654</v>
+        <v>52185</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>26513</v>
+        <v>25381</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>59552</v>
+        <v>60038</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>73001</v>
+        <v>73451</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>70443</v>
+        <v>70100</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>32938</v>
+        <v>33521</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>76393</v>
+        <v>76112</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>44651</v>
+        <v>44769</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>31649</v>
+        <v>33186</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>16640</v>
+        <v>15951</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>28321</v>
+        <v>26788</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>77579</v>
+        <v>76255</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>84963</v>
+        <v>85434</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>51503</v>
+        <v>52704</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>86406</v>
+        <v>86002</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>111900</v>
+        <v>111048</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>109909</v>
+        <v>109980</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>60920</v>
+        <v>60863</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>107840</v>
+        <v>108661</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>77893</v>
+        <v>77983</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>54981</v>
+        <v>56013</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>33042</v>
+        <v>32639</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>52475</v>
+        <v>51807</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>147295</v>
+        <v>148233</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>176460</v>
+        <v>180158</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>111286</v>
+        <v>112294</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>180315</v>
+        <v>181035</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>237697</v>
+        <v>235050</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>241881</v>
+        <v>244820</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>153773</v>
+        <v>152318</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>243930</v>
+        <v>243640</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>115968</v>
+        <v>115942</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>89368</v>
+        <v>90948</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>60837</v>
+        <v>59704</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>80881</v>
+        <v>81109</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>200761</v>
+        <v>199394</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>235014</v>
+        <v>239379</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>159155</v>
+        <v>162526</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>225273</v>
+        <v>227771</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>301039</v>
+        <v>300962</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>314625</v>
+        <v>316372</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>208058</v>
+        <v>207850</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>297279</v>
+        <v>296967</v>
       </c>
     </row>
     <row r="24">
